--- a/tmp/Kenya_858p %5b23.98%5d BITC_%5bCCSL%5d FINAL/Kenya_858p %5b23.98%5d BITC_%5bCCSL%5d FINAL-recap-detailed.xlsx
+++ b/tmp/Kenya_858p %5b23.98%5d BITC_%5bCCSL%5d FINAL/Kenya_858p %5b23.98%5d BITC_%5bCCSL%5d FINAL-recap-detailed.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C4" t="n">
-        <v>6546</v>
+        <v>7392</v>
       </c>
       <c r="D4" t="n">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5">
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569</v>
+        <v>614</v>
       </c>
       <c r="C5" t="n">
-        <v>14596</v>
+        <v>16171</v>
       </c>
       <c r="D5" t="n">
-        <v>365</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="C6" t="n">
-        <v>6982</v>
+        <v>7468</v>
       </c>
       <c r="D6" t="n">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
@@ -557,122 +557,122 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="C7" t="n">
-        <v>3674</v>
+        <v>4494</v>
       </c>
       <c r="D7" t="n">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5 - STAFF MEMBER</t>
+          <t>5 - ZOE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>333</v>
       </c>
       <c r="C8" t="n">
-        <v>107</v>
+        <v>7100</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6 - POLICE OFFICER</t>
+          <t>6 - STAFF MEMBER</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>119</v>
+      </c>
+      <c r="D9" t="n">
         <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>46</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7 - ZOE</t>
+          <t>7 - POLICE OFFICER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>317</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>6274</v>
+        <v>46</v>
       </c>
       <c r="D10" t="n">
-        <v>157</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8 - MITCH</t>
+          <t>8 - FEMALE OFFICER</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>4535</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9 - CHARLIE</t>
+          <t>9 - MITCH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="C12" t="n">
-        <v>255</v>
+        <v>4912</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10 - JOE</t>
+          <t>10 - CHARLIE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>362</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11 - STAFF MEMBERS</t>
+          <t>11 - JOE</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -681,14 +681,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12 - WOMAN</t>
+          <t>12 - STAFF MEMBER 2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D15" t="n">
         <v>8</v>
@@ -697,94 +697,94 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13 - MAN</t>
+          <t>13 - STAFF MEMBERS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14 - LUCAS</t>
+          <t>14 - ZOE AND BILLY</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>671</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15 - ALL</t>
+          <t>15 - WOMAN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>61</v>
+        <v>449</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16 - TOURISTS</t>
+          <t>16 - MAN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>297</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17 - FEMALE TOURIST</t>
+          <t>17 - LUCAS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>710</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18 - TOURIST</t>
+          <t>18 - GROUP</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -793,23 +793,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19 - LAUREN AND NOAH</t>
+          <t>19 - ALL</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20 - ZOE AND JACK</t>
+          <t>20 - TOURISTS</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -825,30 +825,30 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21 - DOCTOR</t>
+          <t>21 - FEMALE TOURIST</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22 - ZOE AND NOAH</t>
+          <t>22 - NOAH AND BILLY</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -857,16 +857,176 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23 - POACHER</t>
+          <t>23 - TOURIST</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
+        <v>21</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>24 - LAUREN AND NOAH</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>25 - ZOE AND JACK</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>26 - MAN 1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" t="n">
+        <v>287</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>27 - DOCTOR</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>110</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>28 - MAN 2</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>29 - POACHER 1</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>43</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>30 - POACHER 2</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>31 - ZOE AND NOAH</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>11</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>32 - POACHER</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
         <v>44</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>33 - WOMAN 2</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>57</v>
+      </c>
+      <c r="D36" t="n">
         <v>2</v>
       </c>
     </row>
